--- a/medicine/Psychotrope/Pall_Mall_(cigarette)/Pall_Mall_(cigarette).xlsx
+++ b/medicine/Psychotrope/Pall_Mall_(cigarette)/Pall_Mall_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pall Mall (prononciation en anglais : [pæl mæl]) est une marque de cigarettes créée en 1899 par la Butler &amp; Butler Company, basée au Royaume-Uni. La marque est aujourd'hui distribuée par l'entreprise américaine RJ Reynolds Tobacco Company sur le marché américain ; la distribution internationale est du ressort de British American Tobacco. En 2013, ce produit était le plus vendu de l'entreprise RJ Reynolds Tobacco, à égalité avec la marque Camel[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pall Mall (prononciation en anglais : [pæl mæl]) est une marque de cigarettes créée en 1899 par la Butler &amp; Butler Company, basée au Royaume-Uni. La marque est aujourd'hui distribuée par l'entreprise américaine RJ Reynolds Tobacco Company sur le marché américain ; la distribution internationale est du ressort de British American Tobacco. En 2013, ce produit était le plus vendu de l'entreprise RJ Reynolds Tobacco, à égalité avec la marque Camel.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque Pall Mall est créée en 1899 par l'entreprise britannique Butler &amp; Butler[2]. Elle est nommée en référence à la rue londonienne Pall Mall, réputée pour ses gentlemen's clubs.
-En 1907, Butler &amp; Butler et toutes les marques de l'entreprise sont rachetées par la American Tobacco Company (en). En 1939, le format de la cigarette est agrandi jusqu'à 85 mm ; ce format king size est devenu le format habituel ; une version 100 mm est lancée en 1966[2].
-En 2014, Pall Mall faisait partie des quatre plus grandes marques de cigarettes du marché américain derrière Marlboro, Newport (en) et Camel[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque Pall Mall est créée en 1899 par l'entreprise britannique Butler &amp; Butler. Elle est nommée en référence à la rue londonienne Pall Mall, réputée pour ses gentlemen's clubs.
+En 1907, Butler &amp; Butler et toutes les marques de l'entreprise sont rachetées par la American Tobacco Company (en). En 1939, le format de la cigarette est agrandi jusqu'à 85 mm ; ce format king size est devenu le format habituel ; une version 100 mm est lancée en 1966.
+En 2014, Pall Mall faisait partie des quatre plus grandes marques de cigarettes du marché américain derrière Marlboro, Newport (en) et Camel.
 </t>
         </is>
       </c>
